--- a/DataSet/ResetPassword.xlsx
+++ b/DataSet/ResetPassword.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="460" windowWidth="23660" windowHeight="20000" tabRatio="500"/>
+    <workbookView xWindow="5560" yWindow="1560" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Reset Password" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>Internal ID</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Invalid email format</t>
   </si>
   <si>
-    <t>Email is space chars</t>
-  </si>
-  <si>
     <t>Check UI of Reset Password email template</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Log out automatically on other devices after user reset password successfully</t>
   </si>
   <si>
-    <t>Open log in page when click on icon</t>
-  </si>
-  <si>
     <t>Can't input over max length in fields</t>
   </si>
   <si>
@@ -98,12 +92,6 @@
     <t>Have emotion/symbol icon in password</t>
   </si>
   <si>
-    <t>The old email still active if have new reset password email</t>
-  </si>
-  <si>
-    <t>Inputting with allow max length (8 to 40 characters)</t>
-  </si>
-  <si>
     <t>Open the home page automatically when user reset pw succussefully</t>
   </si>
   <si>
@@ -164,9 +152,6 @@
     <t>56006</t>
   </si>
   <si>
-    <t>57274</t>
-  </si>
-  <si>
     <t>56022</t>
   </si>
   <si>
@@ -233,7 +218,49 @@
     <t>CONTINUE</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
+    <t>Email address place holder</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>Open log in page when click on close icon</t>
+  </si>
+  <si>
+    <t>Reset password with an email which has previously been discarded change</t>
+  </si>
+  <si>
+    <t>Old email when user change email successfully</t>
+  </si>
+  <si>
+    <t>Reset Password with email has invited but hasn't verified yet</t>
+  </si>
+  <si>
+    <t>Reset Password with an email address unverified after change email successfully</t>
+  </si>
+  <si>
+    <t>Reset password an email address which has expired verify email (change email)</t>
+  </si>
+  <si>
+    <t>Have new reset password email</t>
+  </si>
+  <si>
+    <t>Inputting with max allow length (8 to 40 characters)</t>
+  </si>
+  <si>
+    <t>56312</t>
+  </si>
+  <si>
+    <t>56146</t>
+  </si>
+  <si>
+    <t>56144</t>
+  </si>
+  <si>
+    <t>56199</t>
+  </si>
+  <si>
+    <t>56310</t>
   </si>
 </sst>
 </file>
@@ -308,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -317,8 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -597,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,6 +637,7 @@
     <col min="6" max="6" width="27.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="64.1640625" customWidth="1"/>
+    <col min="9" max="9" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17" x14ac:dyDescent="0.2">
@@ -633,21 +660,23 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>39</v>
+      <c r="A2" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -657,15 +686,17 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -691,15 +722,13 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>40</v>
+      <c r="A3" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -732,248 +761,294 @@
       <c r="AG3" s="1"/>
     </row>
     <row r="4" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>41</v>
+      <c r="A4" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>42</v>
+      <c r="A5" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>43</v>
+      <c r="A6" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>44</v>
+      <c r="A7" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>45</v>
+      <c r="A8" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>46</v>
+      <c r="A9" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="4"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>47</v>
+      <c r="A10" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="4"/>
       <c r="F10" s="6"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSet/ResetPassword.xlsx
+++ b/DataSet/ResetPassword.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1560" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="11040" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Reset Password" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Internal ID</t>
   </si>
@@ -44,21 +44,9 @@
     <t>Password Confirmation</t>
   </si>
   <si>
-    <t>Check UI reset password page</t>
-  </si>
-  <si>
-    <t>Valid email has "space" in first and end</t>
-  </si>
-  <si>
-    <t>Email had been signed up and verified</t>
-  </si>
-  <si>
     <t>Uppercase valid email</t>
   </si>
   <si>
-    <t>Email has been registered again</t>
-  </si>
-  <si>
     <t>Email has not invited</t>
   </si>
   <si>
@@ -68,54 +56,15 @@
     <t>Check UI of Reset Password email template</t>
   </si>
   <si>
-    <t>Disable the reset password button when missing email field</t>
-  </si>
-  <si>
     <t>Log out automatically on other devices after user reset password successfully</t>
   </si>
   <si>
-    <t>Can't input over max length in fields</t>
-  </si>
-  <si>
     <t>Check UI Reset password form</t>
   </si>
   <si>
-    <t>Open reset pw form when pressing on reset pw button/ link from reset password email</t>
-  </si>
-  <si>
-    <t>Open reset pw form after copy paste link from email</t>
-  </si>
-  <si>
-    <t>Open reset pw form again after opening but not set password and close it</t>
-  </si>
-  <si>
-    <t>Have emotion/symbol icon in password</t>
-  </si>
-  <si>
-    <t>Open the home page automatically when user reset pw succussefully</t>
-  </si>
-  <si>
-    <t>Match value from new password and confirm password fields</t>
-  </si>
-  <si>
-    <t>Can set password include "space" chars</t>
-  </si>
-  <si>
-    <t>Pressing on button/link from email again after reset password successfully</t>
-  </si>
-  <si>
-    <t>Confirm new password and new password don't match</t>
-  </si>
-  <si>
-    <t>Missing required fields (password and confirm password field)</t>
-  </si>
-  <si>
     <t>Inputting less than 8 character</t>
   </si>
   <si>
-    <t>De-active link in email after successfully set password</t>
-  </si>
-  <si>
     <t>Reset Password Title</t>
   </si>
   <si>
@@ -131,9 +80,6 @@
     <t>Reset Password Description</t>
   </si>
   <si>
-    <t>56014</t>
-  </si>
-  <si>
     <t>55992</t>
   </si>
   <si>
@@ -152,9 +98,6 @@
     <t>56006</t>
   </si>
   <si>
-    <t>56022</t>
-  </si>
-  <si>
     <t>56004</t>
   </si>
   <si>
@@ -167,39 +110,15 @@
     <t>57303</t>
   </si>
   <si>
-    <t>56056</t>
-  </si>
-  <si>
-    <t>56025</t>
-  </si>
-  <si>
-    <t>56031</t>
-  </si>
-  <si>
     <t>56029</t>
   </si>
   <si>
     <t>56841</t>
   </si>
   <si>
-    <t>56845</t>
-  </si>
-  <si>
     <t>56986</t>
   </si>
   <si>
-    <t>56062</t>
-  </si>
-  <si>
-    <t>56066</t>
-  </si>
-  <si>
-    <t>56224</t>
-  </si>
-  <si>
-    <t>56979</t>
-  </si>
-  <si>
     <t>56042</t>
   </si>
   <si>
@@ -212,9 +131,6 @@
     <t>56064</t>
   </si>
   <si>
-    <t>56981</t>
-  </si>
-  <si>
     <t>CONTINUE</t>
   </si>
   <si>
@@ -224,30 +140,15 @@
     <t>Email address</t>
   </si>
   <si>
-    <t>Open log in page when click on close icon</t>
-  </si>
-  <si>
-    <t>Reset password with an email which has previously been discarded change</t>
-  </si>
-  <si>
     <t>Old email when user change email successfully</t>
   </si>
   <si>
     <t>Reset Password with email has invited but hasn't verified yet</t>
   </si>
   <si>
-    <t>Reset Password with an email address unverified after change email successfully</t>
-  </si>
-  <si>
     <t>Reset password an email address which has expired verify email (change email)</t>
   </si>
   <si>
-    <t>Have new reset password email</t>
-  </si>
-  <si>
-    <t>Inputting with max allow length (8 to 40 characters)</t>
-  </si>
-  <si>
     <t>56312</t>
   </si>
   <si>
@@ -261,13 +162,82 @@
   </si>
   <si>
     <t>56310</t>
+  </si>
+  <si>
+    <t>57740</t>
+  </si>
+  <si>
+    <t>Can't input over max length in fields for reset password form</t>
+  </si>
+  <si>
+    <t>Can't input over max length in fields for reset password page</t>
+  </si>
+  <si>
+    <t>Back to the log in page either by clicking on "X" button or Service Cube logo</t>
+  </si>
+  <si>
+    <t>57738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can't reset password after opening  but not set password and close it </t>
+  </si>
+  <si>
+    <t>Can reset pw from the any reset password email</t>
+  </si>
+  <si>
+    <t>Can reset password with inputting valid email has "space" in first and end</t>
+  </si>
+  <si>
+    <t>Email had been invited and verified</t>
+  </si>
+  <si>
+    <t>Can reset password with an email which has previously been discarded change</t>
+  </si>
+  <si>
+    <t>57732</t>
+  </si>
+  <si>
+    <t>Can reset password with value from 8 to 40 characters</t>
+  </si>
+  <si>
+    <t>57736</t>
+  </si>
+  <si>
+    <t>Can log in the home page after reset password successfully</t>
+  </si>
+  <si>
+    <t>Can't reset password when missing email  field</t>
+  </si>
+  <si>
+    <t>Email has been invited again</t>
+  </si>
+  <si>
+    <t>Missing required fields (password and/or confirm password field)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm new password and new password don't match </t>
+  </si>
+  <si>
+    <t>Can't reset Password with an email address unverified after change email successfully</t>
+  </si>
+  <si>
+    <t>57724</t>
+  </si>
+  <si>
+    <t>Can't reset password if the reset password email has expired</t>
+  </si>
+  <si>
+    <t>Can't reset password if password has been reset</t>
+  </si>
+  <si>
+    <t>thisisaverylongemailaddress_with_duplicated_several_timesthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddress@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,6 +277,12 @@
       <color rgb="FF222222"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -322,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -330,12 +306,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -345,6 +341,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -623,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,42 +658,42 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -722,335 +720,280 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
+      <c r="A3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
     </row>
     <row r="4" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" s="1"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>66</v>
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
+      <c r="A7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="4"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>67</v>
+      <c r="A11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
+      <c r="B13" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>68</v>
+      <c r="A14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>69</v>
+      <c r="A15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>70</v>
+      <c r="A16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
+      <c r="A17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>71</v>
+      <c r="A18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
+      <c r="B21" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A29" s="8"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A30" s="8"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A31" s="8"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A32" s="8"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A33" s="8"/>
+      <c r="B33" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="thisisaverylongemailaddress_with_duplicated_several_timesthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddress@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataSet/ResetPassword.xlsx
+++ b/DataSet/ResetPassword.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Internal ID</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Check UI of Reset Password email template</t>
   </si>
   <si>
-    <t>Log out automatically on other devices after user reset password successfully</t>
-  </si>
-  <si>
     <t>Check UI Reset password form</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
   </si>
   <si>
     <t>56004</t>
-  </si>
-  <si>
-    <t>56247</t>
   </si>
   <si>
     <t>57033</t>
@@ -298,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -306,32 +300,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -341,8 +315,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -621,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,42 +631,42 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -721,33 +694,33 @@
     </row>
     <row r="3" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -756,56 +729,55 @@
     </row>
     <row r="6" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="4"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -815,24 +787,24 @@
         <v>19</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>55</v>
@@ -852,20 +824,20 @@
     </row>
     <row r="15" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -875,24 +847,22 @@
         <v>22</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -900,55 +870,55 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>64</v>
@@ -956,19 +926,15 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>67</v>
-      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
@@ -985,10 +951,6 @@
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/DataSet/ResetPassword.xlsx
+++ b/DataSet/ResetPassword.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="8960" yWindow="3420" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Reset Password" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Internal ID</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>Old Password</t>
-  </si>
-  <si>
     <t>New Password</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>Reset password an email address which has expired verify email (change email)</t>
   </si>
   <si>
-    <t>56312</t>
-  </si>
-  <si>
     <t>56146</t>
   </si>
   <si>
@@ -185,21 +179,12 @@
     <t>Email had been invited and verified</t>
   </si>
   <si>
-    <t>Can reset password with an email which has previously been discarded change</t>
-  </si>
-  <si>
     <t>57732</t>
   </si>
   <si>
     <t>Can reset password with value from 8 to 40 characters</t>
   </si>
   <si>
-    <t>57736</t>
-  </si>
-  <si>
-    <t>Can log in the home page after reset password successfully</t>
-  </si>
-  <si>
     <t>Can't reset password when missing email  field</t>
   </si>
   <si>
@@ -225,6 +210,42 @@
   </si>
   <si>
     <t>thisisaverylongemailaddress_with_duplicated_several_timesthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddress@gmail.com</t>
+  </si>
+  <si>
+    <t>Password placeholder</t>
+  </si>
+  <si>
+    <t>Confirm password placeholder</t>
+  </si>
+  <si>
+    <t>Choose your new password</t>
+  </si>
+  <si>
+    <t>New password</t>
+  </si>
+  <si>
+    <t>Confirm new password</t>
+  </si>
+  <si>
+    <t>12345678901234567890123456789012345678901234567890</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>this_is_an_email_has_not_invited@gmail.com</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>The email address you entered is not associated with any active account.</t>
+  </si>
+  <si>
+    <t>Please enter a valid email address.</t>
+  </si>
+  <si>
+    <t>this_is_an_invalid@email_format</t>
   </si>
 </sst>
 </file>
@@ -305,11 +326,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -594,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,9 +626,13 @@
     <col min="2" max="2" width="89.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
     <col min="8" max="8" width="64.1640625" customWidth="1"/>
     <col min="9" max="9" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17" x14ac:dyDescent="0.2">
@@ -622,51 +646,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="2" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
+      <c r="A2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -692,269 +723,279 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
+      <c r="A6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>49</v>
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="H7" s="7"/>
+      <c r="E7" s="3"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>50</v>
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>51</v>
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>52</v>
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>53</v>
+      <c r="A12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>55</v>
+      <c r="A13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="M14" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="M15" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="9" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="9" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="9" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="thisisaverylongemailaddress_with_duplicated_several_timesthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddress@gmail.com"/>
+    <hyperlink ref="C14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataSet/ResetPassword.xlsx
+++ b/DataSet/ResetPassword.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="3420" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="11040" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Reset Password" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>Internal ID</t>
   </si>
@@ -83,9 +83,6 @@
     <t>55998</t>
   </si>
   <si>
-    <t>56222</t>
-  </si>
-  <si>
     <t>56000</t>
   </si>
   <si>
@@ -131,27 +128,6 @@
     <t>Email address</t>
   </si>
   <si>
-    <t>Old email when user change email successfully</t>
-  </si>
-  <si>
-    <t>Reset Password with email has invited but hasn't verified yet</t>
-  </si>
-  <si>
-    <t>Reset password an email address which has expired verify email (change email)</t>
-  </si>
-  <si>
-    <t>56146</t>
-  </si>
-  <si>
-    <t>56144</t>
-  </si>
-  <si>
-    <t>56199</t>
-  </si>
-  <si>
-    <t>56310</t>
-  </si>
-  <si>
     <t>57740</t>
   </si>
   <si>
@@ -188,24 +164,12 @@
     <t>Can't reset password when missing email  field</t>
   </si>
   <si>
-    <t>Email has been invited again</t>
-  </si>
-  <si>
     <t>Missing required fields (password and/or confirm password field)</t>
   </si>
   <si>
     <t xml:space="preserve">Confirm new password and new password don't match </t>
   </si>
   <si>
-    <t>Can't reset Password with an email address unverified after change email successfully</t>
-  </si>
-  <si>
-    <t>57724</t>
-  </si>
-  <si>
-    <t>Can't reset password if the reset password email has expired</t>
-  </si>
-  <si>
     <t>Can't reset password if password has been reset</t>
   </si>
   <si>
@@ -246,13 +210,31 @@
   </si>
   <si>
     <t>this_is_an_invalid@email_format</t>
+  </si>
+  <si>
+    <t>servicecuberp01@gmail.com</t>
+  </si>
+  <si>
+    <t>FS@123456</t>
+  </si>
+  <si>
+    <t>servicecuberp02@gmail.com</t>
+  </si>
+  <si>
+    <t>SERVICECUBERP01@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>First name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,13 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Menlo"/>
@@ -297,6 +272,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -322,9 +311,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -333,11 +323,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -614,28 +605,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
-    <col min="8" max="8" width="64.1640625" customWidth="1"/>
-    <col min="9" max="9" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.1640625" customWidth="1"/>
+    <col min="3" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="64.1640625" customWidth="1"/>
+    <col min="10" max="10" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -646,60 +637,67 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -722,280 +720,323 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
-        <v>67</v>
+      <c r="AH2" s="1"/>
+    </row>
+    <row r="3" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>45</v>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="1"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="C6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="3"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>53</v>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="N14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="M14" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="M15" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="E15" s="1"/>
+      <c r="N15" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="B17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="1"/>
+      <c r="B18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="thisisaverylongemailaddress_with_duplicated_several_timesthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddressthisisaverylongemailaddress@gmail.com"/>
     <hyperlink ref="C14" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="C19" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataSet/ResetPassword.xlsx
+++ b/DataSet/ResetPassword.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/service_cube_automation_testing/DataSet/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="11040" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Reset Password" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>Internal ID</t>
   </si>
@@ -228,13 +223,34 @@
   </si>
   <si>
     <t>First name</t>
+  </si>
+  <si>
+    <t>Email 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    servicecuberp01@gmail.com    </t>
+  </si>
+  <si>
+    <t>Please choose a password that is 8-40 characters long.</t>
+  </si>
+  <si>
+    <t>These passwords don’t match.</t>
+  </si>
+  <si>
+    <t>aabbccdd</t>
+  </si>
+  <si>
+    <t>aabbccd</t>
+  </si>
+  <si>
+    <t>aabbccda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -385,7 +401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,7 +436,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,7 +613,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,28 +621,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="64.1640625" customWidth="1"/>
-    <col min="10" max="10" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="24.375" customWidth="1"/>
+    <col min="8" max="8" width="27.375" customWidth="1"/>
+    <col min="9" max="9" width="26.375" customWidth="1"/>
+    <col min="10" max="10" width="64.125" customWidth="1"/>
+    <col min="11" max="11" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -637,40 +653,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="18">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -680,25 +699,25 @@
       <c r="C2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -721,8 +740,9 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
-    </row>
-    <row r="3" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" ht="18">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
@@ -732,32 +752,33 @@
       <c r="C3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
         <v>52</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>53</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -769,9 +790,10 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:35" ht="18">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -781,10 +803,11 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="1"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:35" ht="18">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -794,15 +817,16 @@
       <c r="C6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:35" ht="18">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
@@ -812,14 +836,15 @@
       <c r="C7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="3"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="D7" s="3"/>
+      <c r="E7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="3"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:35" ht="18">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
@@ -829,15 +854,16 @@
       <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="8"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="H8" s="8"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:35" ht="18">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -847,12 +873,17 @@
       <c r="C9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="18">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -862,12 +893,15 @@
       <c r="C10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+      <c r="E10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="18">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -875,14 +909,17 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:35" ht="18">
       <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
@@ -892,12 +929,13 @@
       <c r="C12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+      <c r="E12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:35" ht="18">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -907,8 +945,9 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:35" ht="18">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -918,13 +957,14 @@
       <c r="C14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="1"/>
-      <c r="N14" s="5" t="s">
+      <c r="F14" s="1"/>
+      <c r="O14" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="18">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -936,11 +976,12 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="N15" s="5" t="s">
+      <c r="F15" s="1"/>
+      <c r="O15" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="18">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
@@ -950,12 +991,22 @@
       <c r="C16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D16" s="3"/>
+      <c r="E16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -965,12 +1016,14 @@
       <c r="C17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D17" s="3"/>
+      <c r="E17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" ht="18">
       <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
@@ -980,12 +1033,22 @@
       <c r="C18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D18" s="3"/>
+      <c r="E18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18">
       <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
@@ -995,28 +1058,29 @@
       <c r="C19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D19" s="3"/>
+      <c r="E19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" ht="18">
       <c r="A20" s="6"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="18">
       <c r="A21" s="6"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="18">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="18">
       <c r="A23" s="6"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="18">
       <c r="A24" s="6"/>
       <c r="B24" s="1"/>
     </row>
@@ -1031,13 +1095,16 @@
     <hyperlink ref="C8" r:id="rId7"/>
     <hyperlink ref="C9" r:id="rId8"/>
     <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="C19" r:id="rId15"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C16" r:id="rId11"/>
+    <hyperlink ref="C17" r:id="rId12"/>
+    <hyperlink ref="C18" r:id="rId13"/>
+    <hyperlink ref="C19" r:id="rId14"/>
+    <hyperlink ref="D9" r:id="rId15" display="servicecuberp01@gmail.com"/>
+    <hyperlink ref="D11" r:id="rId16"/>
+    <hyperlink ref="C11" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/DataSet/ResetPassword.xlsx
+++ b/DataSet/ResetPassword.xlsx
@@ -72,9 +72,6 @@
     <t>55992</t>
   </si>
   <si>
-    <t>55996</t>
-  </si>
-  <si>
     <t>55998</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>aabbccda</t>
+  </si>
+  <si>
+    <t>58807</t>
   </si>
 </sst>
 </file>
@@ -332,7 +332,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -342,6 +342,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -613,7 +614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -623,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -653,13 +654,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -674,34 +675,34 @@
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18">
       <c r="A2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -713,10 +714,10 @@
         <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -744,49 +745,49 @@
     </row>
     <row r="3" spans="1:35" ht="18">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -795,10 +796,10 @@
     </row>
     <row r="5" spans="1:35" ht="18">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -809,36 +810,36 @@
     </row>
     <row r="6" spans="1:35" ht="18">
       <c r="A6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:35" ht="18">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="3"/>
@@ -846,17 +847,17 @@
     </row>
     <row r="8" spans="1:35" ht="18">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -868,79 +869,79 @@
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="18">
+      <c r="A10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="18">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="18">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:35" ht="18">
       <c r="A12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:35" ht="18">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -949,118 +950,118 @@
     </row>
     <row r="14" spans="1:35" ht="18">
       <c r="A14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="O14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="18">
       <c r="A15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="O15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="18">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18">
       <c r="A17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="8"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" ht="18">
       <c r="A18" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18">
       <c r="A19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="8"/>
     </row>
